--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="460" windowWidth="15420" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3162,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5570,6 +5570,12 @@
         <v>140.12100000000001</v>
       </c>
     </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B303">
+        <f>MIN(B1:B300)</f>
+        <v>20.392399999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
